--- a/database/240103_수업내용/231227_db 모델링1_보완.xlsx
+++ b/database/240103_수업내용/231227_db 모델링1_보완.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psm90\Desktop\psmin\database\240103_수업내용\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F281F097-E115-4DBE-A96E-D7147F84A762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B96F18D-3A1F-4218-AD74-9687B65E7607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="1290" windowWidth="9675" windowHeight="11385" xr2:uid="{29BAC829-A9B4-455B-BCF1-EF0CCCBC5CDF}"/>
+    <workbookView xWindow="11160" yWindow="3285" windowWidth="25155" windowHeight="16155" xr2:uid="{29BAC829-A9B4-455B-BCF1-EF0CCCBC5CDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>의사리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,38 +153,6 @@
   </si>
   <si>
     <t>휴무일_varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전국 병원 협회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원 고유번호_int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원 이름_varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역_varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원구분_varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의료수입_int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의료진 수_int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병상 수_int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -344,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,15 +329,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9186BC-817C-43F1-8B8B-E1AD980C2441}">
   <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1469,7 +1428,7 @@
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -1485,13 +1444,13 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
@@ -1513,7 +1472,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1573,7 +1532,7 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G14" s="1"/>
       <c r="J14" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -1583,24 +1542,24 @@
       </c>
       <c r="G15" s="1"/>
       <c r="J15" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="J16" s="7" t="s">
-        <v>44</v>
+      <c r="J16" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="K16" s="1"/>
       <c r="N16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1609,7 +1568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1626,7 +1585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1637,15 +1596,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
       <c r="H21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
       <c r="H22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +1612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
       <c r="H23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1661,44 +1620,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
       <c r="H24" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H25" s="7" t="s">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="H25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H26" s="8" t="s">
-        <v>52</v>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="H26" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
       <c r="F27" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
       <c r="F28" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>18</v>
@@ -1707,12 +1660,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
       <c r="F29" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>26</v>
@@ -1721,10 +1671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
       <c r="F30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1732,27 +1679,21 @@
         <v>19</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
       <c r="F31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
       <c r="F32" s="4" t="s">
         <v>5</v>
       </c>
@@ -1760,32 +1701,26 @@
         <v>22</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F34" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F35" s="4" t="s">
         <v>24</v>
       </c>
@@ -1793,17 +1728,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
       <c r="J37" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
